--- a/documents/Mesh Command List.xlsx
+++ b/documents/Mesh Command List.xlsx
@@ -585,7 +585,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -598,7 +598,7 @@
     <col min="6" max="7" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/documents/Mesh Command List.xlsx
+++ b/documents/Mesh Command List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14550" windowHeight="6675"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment 10 Implementation" sheetId="1" r:id="rId1"/>
@@ -192,9 +192,6 @@
     <t>ONE_HZ_EVENT_MASK</t>
   </si>
   <si>
-    <t>Scheduler-&gt;gecko_cmd_mesh_generic_client_publish</t>
-  </si>
-  <si>
     <t>Scheduler-&gt;1HZ Event timer</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>client request or server change callback</t>
+  </si>
+  <si>
+    <t>Scheduler-&gt;gecko_cmd_mesh_sensor_server_send_status</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -685,16 +685,16 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
@@ -702,16 +702,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
@@ -781,7 +781,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>55</v>
@@ -884,7 +884,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>19</v>
@@ -927,7 +927,7 @@
         <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1">
@@ -944,7 +944,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1">
@@ -1000,13 +1000,13 @@
         <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
@@ -1017,10 +1017,10 @@
         <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
@@ -1028,16 +1028,16 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
